--- a/tabellen/Tabel_Dendro_veldatum.xlsx
+++ b/tabellen/Tabel_Dendro_veldatum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanecakr\Documents\R_bookdown\HandeidingenNatWet\Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanecakr\Documents\R_github\handleidingDendro\tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA339849-44D7-4669-88EE-E7032020B9EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359B4653-5923-460C-A79C-73E4FDBCAF58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFFEBC10-6255-4FAB-8BFC-808908C657BC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Label jaarringreeks</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Veldatum</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>min. 1 - max. 31</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>ná 1219 AD</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>voorjaar 1273 AD</t>
   </si>
   <si>
@@ -178,6 +172,9 @@
   </si>
   <si>
     <t>Schors/wankant*</t>
+  </si>
+  <si>
+    <t>WK</t>
   </si>
 </sst>
 </file>
@@ -218,7 +215,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,7 +530,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -576,9 +573,6 @@
       <c r="B2">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2">
         <v>7</v>
       </c>
@@ -586,10 +580,10 @@
         <v>1294</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -599,20 +593,14 @@
       <c r="B3">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3">
         <v>1279</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -622,9 +610,6 @@
       <c r="B4">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4">
         <v>11</v>
       </c>
@@ -632,10 +617,10 @@
         <v>1285</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,9 +630,6 @@
       <c r="B5">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5">
         <v>15</v>
       </c>
@@ -655,10 +637,10 @@
         <v>1285</v>
       </c>
       <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -668,9 +650,6 @@
       <c r="B6">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6">
         <v>6</v>
       </c>
@@ -678,10 +657,10 @@
         <v>1277</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -691,9 +670,6 @@
       <c r="B7">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7">
         <v>16</v>
       </c>
@@ -701,10 +677,10 @@
         <v>1284</v>
       </c>
       <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -714,20 +690,14 @@
       <c r="B8">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8">
         <v>1239</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -737,20 +707,14 @@
       <c r="B9">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
       <c r="E9">
         <v>1232</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -760,31 +724,25 @@
       <c r="B10">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
       <c r="E10">
         <v>1211</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>19</v>
@@ -792,23 +750,17 @@
       <c r="E11">
         <v>1271</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>114</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12">
         <v>16</v>
       </c>
@@ -816,45 +768,36 @@
         <v>1269</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>104</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
       <c r="E13">
         <v>1253</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
       <c r="D14">
         <v>13</v>
       </c>
@@ -862,22 +805,19 @@
         <v>1260</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -885,21 +825,21 @@
         <v>1247</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -907,34 +847,25 @@
       <c r="E16">
         <v>1289</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
       <c r="E17">
         <v>1257</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/tabellen/Tabel_Dendro_veldatum.xlsx
+++ b/tabellen/Tabel_Dendro_veldatum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanecakr\Documents\R_github\handleidingDendro\tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359B4653-5923-460C-A79C-73E4FDBCAF58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785CBD94-E278-4566-8A99-4F795FACFB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFFEBC10-6255-4FAB-8BFC-808908C657BC}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Einddatering</t>
   </si>
   <si>
-    <t>Schatting ontbrekend spint</t>
-  </si>
-  <si>
     <t>Veldatum</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Aantal ringen</t>
   </si>
   <si>
-    <t>Spinthoutringen</t>
-  </si>
-  <si>
     <t>NOV-14</t>
   </si>
   <si>
@@ -171,10 +165,16 @@
     <t>NOV-22</t>
   </si>
   <si>
-    <t>Schors/wankant*</t>
-  </si>
-  <si>
     <t>WK</t>
+  </si>
+  <si>
+    <t>Schors/ wankant</t>
+  </si>
+  <si>
+    <t>Ontbrekend spint</t>
+  </si>
+  <si>
+    <t>Spinthout- ringen</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,22 +548,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -580,10 +580,10 @@
         <v>1294</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -597,10 +597,10 @@
         <v>1279</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -617,10 +617,10 @@
         <v>1285</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -637,10 +637,10 @@
         <v>1285</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -657,10 +657,10 @@
         <v>1277</v>
       </c>
       <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -677,10 +677,10 @@
         <v>1284</v>
       </c>
       <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -694,10 +694,10 @@
         <v>1239</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -711,10 +711,10 @@
         <v>1232</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -728,21 +728,21 @@
         <v>1211</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>19</v>
@@ -751,12 +751,12 @@
         <v>1271</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>114</v>
@@ -768,15 +768,15 @@
         <v>1269</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>104</v>
@@ -785,15 +785,15 @@
         <v>1253</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>116</v>
@@ -805,15 +805,15 @@
         <v>1260</v>
       </c>
       <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
         <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>61</v>
@@ -825,21 +825,21 @@
         <v>1247</v>
       </c>
       <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
         <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -848,12 +848,12 @@
         <v>1289</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>66</v>
@@ -862,10 +862,10 @@
         <v>1257</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
